--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JOB\salary-calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3787C51E-69F5-45EE-B9F6-16B94EB9E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4865680A-C731-4256-8848-68119F3DBE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24315" yWindow="930" windowWidth="21600" windowHeight="11835" xr2:uid="{EC33CA7C-F711-4E75-B7CC-1445EA203302}"/>
+    <workbookView xWindow="3615" yWindow="2220" windowWidth="24855" windowHeight="11835" xr2:uid="{EC33CA7C-F711-4E75-B7CC-1445EA203302}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -122,14 +122,44 @@
     <t>22/05/2025</t>
   </si>
   <si>
-    <t>email</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>phuong.tran@ieltsdatio.edu.vn</t>
+  </si>
+  <si>
+    <t>nghialetuansos4@gmail.com</t>
+  </si>
+  <si>
+    <t>ndquyen661@gmail.com</t>
+  </si>
+  <si>
+    <t>hau.vo@ieltsdatio.edu.vn</t>
+  </si>
+  <si>
+    <t>hoang.tran@ieltsdatio.edu.vn</t>
+  </si>
+  <si>
+    <t>vinh.pham@ieltsdatio.edu.vn</t>
+  </si>
+  <si>
+    <t>anhminhdec@gmail.com</t>
+  </si>
+  <si>
+    <t>huong.pham2511@gmail.com</t>
+  </si>
+  <si>
+    <t>hai.nguyen@ieltsdatio.edu.vn</t>
+  </si>
+  <si>
+    <t>trungkien.141313@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +182,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -180,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -351,11 +389,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -420,8 +513,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -757,16 +872,15 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="1" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -826,8 +940,8 @@
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>28</v>
+      <c r="B2" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="6">
         <v>45839</v>
@@ -871,8 +985,8 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>28</v>
+      <c r="B3" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12">
@@ -914,8 +1028,8 @@
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>28</v>
+      <c r="B4" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>18</v>
@@ -961,8 +1075,8 @@
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>28</v>
+      <c r="B5" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12">
@@ -1004,8 +1118,8 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>28</v>
+      <c r="B6" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="6">
         <v>45394</v>
@@ -1055,8 +1169,8 @@
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>28</v>
+      <c r="B7" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="16">
         <v>45689</v>
@@ -1100,8 +1214,8 @@
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>28</v>
+      <c r="B8" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="6">
         <v>45510</v>
@@ -1147,8 +1261,8 @@
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>28</v>
+      <c r="B9" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="17">
         <v>45662</v>
@@ -1200,8 +1314,8 @@
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>28</v>
+      <c r="B10" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>25</v>
@@ -1247,50 +1361,59 @@
       <c r="A11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>28</v>
+      <c r="B11" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="E11" s="7">
-        <v>416</v>
-      </c>
-      <c r="F11" s="7">
-        <v>312</v>
-      </c>
-      <c r="G11" s="7">
-        <v>377</v>
-      </c>
-      <c r="H11" s="7">
-        <v>364</v>
-      </c>
-      <c r="I11" s="7">
-        <v>338</v>
-      </c>
-      <c r="J11" s="7">
-        <v>299</v>
-      </c>
-      <c r="K11" s="7">
-        <v>286</v>
-      </c>
-      <c r="L11" s="7">
-        <v>286</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>338</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
+      <c r="D11" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J11" s="22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="20">
+        <v>176</v>
+      </c>
+      <c r="N11" s="20">
+        <v>176</v>
+      </c>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{86805EF7-ADAA-4841-900A-1161EEEF1257}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{AB412D6C-4385-40A0-AC72-B09E76C30CBD}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{A33B89BF-C91B-4B64-A2D7-753E620D706E}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{0091B483-C796-43E5-AA3A-CD0CA3539E67}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{F4F60EA6-105F-40A9-BA12-AEED0119D7CF}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{920C3EF0-5C0C-4999-A326-75D71A90E45E}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{E28A3C78-E6B1-427B-B6D4-5EC78CD57E00}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{37325BE0-ABE9-4142-A135-62B0B81FD89D}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{8573E30A-8B9F-420B-A219-828922E8DC57}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JOB\salary-calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4865680A-C731-4256-8848-68119F3DBE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E51E9EA-E7EB-4B21-9C8F-7EB12CBFC8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2220" windowWidth="24855" windowHeight="11835" xr2:uid="{EC33CA7C-F711-4E75-B7CC-1445EA203302}"/>
+    <workbookView xWindow="1695" yWindow="3150" windowWidth="24855" windowHeight="11835" xr2:uid="{EC33CA7C-F711-4E75-B7CC-1445EA203302}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA00A024-4FD2-4DD5-A165-4A26B0EA07C0}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,27 +1370,27 @@
       <c r="D11" s="20">
         <v>0.8</v>
       </c>
-      <c r="E11" s="22" t="e">
-        <v>#VALUE!</v>
+      <c r="E11" s="22">
+        <v>256</v>
       </c>
       <c r="F11" s="23"/>
-      <c r="G11" s="22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" s="22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" s="22" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" s="22" t="e">
-        <v>#VALUE!</v>
+      <c r="G11" s="22">
+        <v>232</v>
+      </c>
+      <c r="H11" s="22">
+        <v>224</v>
+      </c>
+      <c r="I11" s="22">
+        <v>208</v>
+      </c>
+      <c r="J11" s="22">
+        <v>184</v>
+      </c>
+      <c r="K11" s="22">
+        <v>176</v>
+      </c>
+      <c r="L11" s="22">
+        <v>176</v>
       </c>
       <c r="M11" s="20">
         <v>176</v>
